--- a/Sprint0/10-09-2021/03_Product_Backlog.xlsx
+++ b/Sprint0/10-09-2021/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\10-09-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450D6AC7-F747-4D49-9293-F29141F94026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8266976-8A27-4063-B21C-039CB2B1E4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
